--- a/Perhitungan Metode Bayes.xlsx
+++ b/Perhitungan Metode Bayes.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jodyk\OneDrive\Documents\Projects\laravel\project\exapp-tb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\U-Smile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1BA6B64-180D-425D-B44B-414E153EE6E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80417D6A-6D65-4FE1-8145-CC5C1F9E6E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="10905" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BAYES" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -24,8 +25,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="86">
   <si>
     <t>hypothesis</t>
   </si>
@@ -225,17 +224,90 @@
   </si>
   <si>
     <t>Hypothesis / Evidence</t>
+  </si>
+  <si>
+    <t>Karies Gigi</t>
+  </si>
+  <si>
+    <t>Periodontitis</t>
+  </si>
+  <si>
+    <t>Gingivitis</t>
+  </si>
+  <si>
+    <t>Abses Gigi</t>
+  </si>
+  <si>
+    <t>EC0005</t>
+  </si>
+  <si>
+    <t>Pulpitis</t>
+  </si>
+  <si>
+    <t>Jumlah Pasien</t>
+  </si>
+  <si>
+    <t>Penyakit lainnya</t>
+  </si>
+  <si>
+    <t>Gigi ngilu saat makan/minum</t>
+  </si>
+  <si>
+    <t>Nyeri gigi spontan</t>
+  </si>
+  <si>
+    <t>Gigi berlubang</t>
+  </si>
+  <si>
+    <t>Gigi berdarah</t>
+  </si>
+  <si>
+    <t>Gigi goyang</t>
+  </si>
+  <si>
+    <t>Gusi bengkak</t>
+  </si>
+  <si>
+    <t>Sakit menjalar ke kepala</t>
+  </si>
+  <si>
+    <t>1. Gigi ngilu saat makan/minum</t>
+  </si>
+  <si>
+    <t>2. Nyeri gigi spontan</t>
+  </si>
+  <si>
+    <t>3. Gigi berlubang</t>
+  </si>
+  <si>
+    <t>4. Gigi berdarah</t>
+  </si>
+  <si>
+    <t>5. Gigi bergoyang</t>
+  </si>
+  <si>
+    <t>6. Gusi bengkak</t>
+  </si>
+  <si>
+    <t>7. Nyeri sampai kepala</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -704,86 +776,111 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1002,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q34" sqref="Q34"/>
+    <sheetView topLeftCell="J18" workbookViewId="0">
+      <selection sqref="A1:Y35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1455,10 +1552,10 @@
       <c r="C16" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="H16" s="72" t="s">
+      <c r="H16" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="75">
+      <c r="I16" s="72">
         <f>D3</f>
         <v>0.5</v>
       </c>
@@ -1470,11 +1567,11 @@
         <f>I3</f>
         <v>0.2</v>
       </c>
-      <c r="L16" s="75">
+      <c r="L16" s="72">
         <f>(K16*K17*K18*K19*I16)</f>
         <v>3.6000000000000008E-3</v>
       </c>
-      <c r="M16" s="75">
+      <c r="M16" s="72">
         <f>L16/L$32</f>
         <v>2.4311183144246361E-2</v>
       </c>
@@ -1546,10 +1643,10 @@
       <c r="C20" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="H20" s="72" t="s">
+      <c r="H20" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="I20" s="75">
+      <c r="I20" s="72">
         <f>D4</f>
         <v>0.6</v>
       </c>
@@ -1561,11 +1658,11 @@
         <f>I4</f>
         <v>0.7</v>
       </c>
-      <c r="L20" s="75">
+      <c r="L20" s="72">
         <f>(K20*K21*K22*K23*I20)</f>
         <v>8.819999999999998E-3</v>
       </c>
-      <c r="M20" s="75">
+      <c r="M20" s="72">
         <f>L20/L$32</f>
         <v>5.9562398703403553E-2</v>
       </c>
@@ -1642,10 +1739,10 @@
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1">
       <c r="D24" s="42"/>
-      <c r="H24" s="72" t="s">
+      <c r="H24" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="I24" s="75">
+      <c r="I24" s="72">
         <f>D5</f>
         <v>0.6</v>
       </c>
@@ -1657,11 +1754,11 @@
         <f>I5</f>
         <v>0.7</v>
       </c>
-      <c r="L24" s="75">
+      <c r="L24" s="72">
         <f>(K24*K25*K26*K27*I24)</f>
         <v>3.3599999999999997E-3</v>
       </c>
-      <c r="M24" s="75">
+      <c r="M24" s="72">
         <f>L24/L$32</f>
         <v>2.2690437601296597E-2</v>
       </c>
@@ -1710,10 +1807,10 @@
       <c r="M27" s="74"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" customHeight="1">
-      <c r="H28" s="72" t="s">
+      <c r="H28" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="I28" s="75">
+      <c r="I28" s="72">
         <f>D6</f>
         <v>0.7</v>
       </c>
@@ -1725,11 +1822,11 @@
         <f>I6</f>
         <v>0.6</v>
       </c>
-      <c r="L28" s="75">
+      <c r="L28" s="72">
         <f>(K28*K29*K30*K31*I28)</f>
         <v>0.1323</v>
       </c>
-      <c r="M28" s="75">
+      <c r="M28" s="72">
         <f>L28/L$32</f>
         <v>0.89343598055105355</v>
       </c>
@@ -2965,4 +3062,949 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7802F0C0-CADC-4B73-9C16-B7B40ED62C0F}">
+  <dimension ref="A1:Y41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" customWidth="1"/>
+    <col min="9" max="9" width="33" customWidth="1"/>
+    <col min="10" max="10" width="29.85546875" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" customWidth="1"/>
+    <col min="13" max="13" width="24.28515625" customWidth="1"/>
+    <col min="14" max="14" width="17.140625" customWidth="1"/>
+    <col min="15" max="15" width="25.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="6"/>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="71" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="K2" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="L2" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="M2" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="N2" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="O2" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" s="11">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="77">
+        <f>SUM(F11/F10)/(100/100)</f>
+        <v>0.1368421052631579</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="84" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="85">
+        <f>SUM(29/F11)/(100/100)</f>
+        <v>0.55769230769230771</v>
+      </c>
+      <c r="J3" s="85">
+        <f>SUM(0/F11)/(100/100)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="85">
+        <f>SUM(52/F11)/(100/100)</f>
+        <v>1</v>
+      </c>
+      <c r="L3" s="85">
+        <f>SUM(52/F11)/(100/100)</f>
+        <v>1</v>
+      </c>
+      <c r="M3" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="N3" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="O3" s="13">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" s="14">
+        <v>2</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="77">
+        <f>SUM(F12/F10)/(100/100)</f>
+        <v>2.368421052631579E-2</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="85">
+        <f>SUM(9/F12)/(100/100)</f>
+        <v>1</v>
+      </c>
+      <c r="J4" s="85">
+        <f>SUM(2/F12)/(100/100)</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="K4" s="85">
+        <f>SUM(1/F12)/(100/100)</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="L4" s="85">
+        <f t="shared" ref="L4:L7" si="0">SUM(52/F12)/(100/100)</f>
+        <v>5.7777777777777777</v>
+      </c>
+      <c r="M4" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="N4" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="O4" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" s="14">
+        <v>3</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="77">
+        <f>SUM(F13/F10)/(100/100)</f>
+        <v>7.3684210526315783E-2</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="85">
+        <f>SUM(10/F13)/(100/100)</f>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="J5" s="85">
+        <f>SUM(0/F13)/(100/100)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="85">
+        <f>SUM(5/F13)/(100/100)</f>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="L5" s="85">
+        <f t="shared" si="0"/>
+        <v>1.8571428571428572</v>
+      </c>
+      <c r="M5" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="N5" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="O5" s="16">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" s="17">
+        <v>4</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="77">
+        <f>SUM(F14/F10)/(100/100)</f>
+        <v>8.6842105263157901E-2</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="85">
+        <f>SUM(15/F14)/(100/100)</f>
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="J6" s="85">
+        <f>SUM(14/F14)/(100/100)</f>
+        <v>0.42424242424242425</v>
+      </c>
+      <c r="K6" s="85">
+        <f>SUM(37/F14)/(100/100)</f>
+        <v>1.1212121212121211</v>
+      </c>
+      <c r="L6" s="85">
+        <f t="shared" si="0"/>
+        <v>1.5757575757575757</v>
+      </c>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" s="17">
+        <v>5</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="77">
+        <f>SUM(F15/F10)/(100/100)</f>
+        <v>0.21842105263157896</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="85">
+        <f>SUM(54/F15)/(100/100)</f>
+        <v>0.6506024096385542</v>
+      </c>
+      <c r="J7" s="85">
+        <f>SUM(34/F15)/(100/100)</f>
+        <v>0.40963855421686746</v>
+      </c>
+      <c r="K7" s="85">
+        <f>SUM(83/F15)/(100/100)</f>
+        <v>1</v>
+      </c>
+      <c r="L7" s="85">
+        <f t="shared" si="0"/>
+        <v>0.62650602409638556</v>
+      </c>
+      <c r="M7" s="19">
+        <v>0.9</v>
+      </c>
+      <c r="N7" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="O7" s="19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="H8" s="50"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="52"/>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="H9" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="49"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="54"/>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="E10" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10">
+        <v>380</v>
+      </c>
+      <c r="H10" s="25">
+        <v>1</v>
+      </c>
+      <c r="I10" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10" s="53"/>
+      <c r="K10" s="54"/>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="9">
+        <v>52</v>
+      </c>
+      <c r="H11" s="28">
+        <v>2</v>
+      </c>
+      <c r="I11" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" s="55"/>
+      <c r="K11" s="56"/>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" s="26">
+        <v>1</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="31">
+        <v>9</v>
+      </c>
+      <c r="H12" s="28">
+        <v>3</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" s="29">
+        <v>2</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="82" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="78">
+        <v>28</v>
+      </c>
+      <c r="H13" s="32">
+        <v>5</v>
+      </c>
+      <c r="I13" s="32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" s="29">
+        <v>3</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="82" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="78">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="A15" s="29">
+        <v>4</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="82" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="78">
+        <v>83</v>
+      </c>
+      <c r="H15" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="62"/>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="A16" s="29">
+        <v>5</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="82" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="79" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="78">
+        <v>175</v>
+      </c>
+      <c r="H16" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="J16" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="K16" s="69" t="s">
+        <v>59</v>
+      </c>
+      <c r="L16" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="M16" s="69" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="29">
+        <v>6</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="82" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="87">
+        <f>D3</f>
+        <v>0.1368421052631579</v>
+      </c>
+      <c r="J17" s="64" t="str">
+        <f>$C$12</f>
+        <v>Gigi ngilu saat makan/minum</v>
+      </c>
+      <c r="K17" s="64">
+        <f>I3</f>
+        <v>0.55769230769230771</v>
+      </c>
+      <c r="L17" s="72">
+        <f>(K17*K18*K19*K20*I17)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="72">
+        <f>L17/L$33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="33">
+        <v>7</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="65" t="str">
+        <f>$C$13</f>
+        <v>Nyeri gigi spontan</v>
+      </c>
+      <c r="K18" s="65">
+        <f>J3</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="73"/>
+      <c r="M18" s="73"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="H19" s="73"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="65" t="str">
+        <f>$C$14</f>
+        <v>Gigi berlubang</v>
+      </c>
+      <c r="K19" s="65">
+        <f>K3</f>
+        <v>1</v>
+      </c>
+      <c r="L19" s="73"/>
+      <c r="M19" s="73"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="36"/>
+      <c r="C20" s="37"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="90"/>
+      <c r="J20" s="66" t="str">
+        <f>$C$16</f>
+        <v>Gigi goyang</v>
+      </c>
+      <c r="K20" s="66">
+        <f>M3</f>
+        <v>0.2</v>
+      </c>
+      <c r="L20" s="74"/>
+      <c r="M20" s="74"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="I21" s="87">
+        <f>D4</f>
+        <v>2.368421052631579E-2</v>
+      </c>
+      <c r="J21" s="64" t="str">
+        <f>$C$12</f>
+        <v>Gigi ngilu saat makan/minum</v>
+      </c>
+      <c r="K21" s="64">
+        <f>I4</f>
+        <v>1</v>
+      </c>
+      <c r="L21" s="72">
+        <f>(K21*K22*K23*K24*I21)</f>
+        <v>1.7543859649122806E-4</v>
+      </c>
+      <c r="M21" s="72">
+        <f>L21/L$33</f>
+        <v>8.352054430807913E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="39">
+        <v>1</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" s="73"/>
+      <c r="I22" s="89"/>
+      <c r="J22" s="65" t="str">
+        <f>$C$13</f>
+        <v>Nyeri gigi spontan</v>
+      </c>
+      <c r="K22" s="65">
+        <f>J4</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="L22" s="73"/>
+      <c r="M22" s="73"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="40">
+        <v>2</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" s="73"/>
+      <c r="I23" s="89"/>
+      <c r="J23" s="65" t="str">
+        <f>$C$14</f>
+        <v>Gigi berlubang</v>
+      </c>
+      <c r="K23" s="65">
+        <f>K4</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="L23" s="73"/>
+      <c r="M23" s="73"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="40">
+        <v>3</v>
+      </c>
+      <c r="B24" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="42"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="90"/>
+      <c r="J24" s="66" t="str">
+        <f>$C$16</f>
+        <v>Gigi goyang</v>
+      </c>
+      <c r="K24" s="66">
+        <f>M4</f>
+        <v>0.3</v>
+      </c>
+      <c r="L24" s="74"/>
+      <c r="M24" s="74"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="41">
+        <v>4</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="42"/>
+      <c r="H25" s="75" t="s">
+        <v>66</v>
+      </c>
+      <c r="I25" s="87">
+        <f>D5</f>
+        <v>7.3684210526315783E-2</v>
+      </c>
+      <c r="J25" s="64" t="str">
+        <f>$C$12</f>
+        <v>Gigi ngilu saat makan/minum</v>
+      </c>
+      <c r="K25" s="64">
+        <f>I5</f>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="L25" s="72">
+        <f>(K25*K26*K27*K28*I25)</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="72">
+        <f>L25/L$33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="D26" s="42"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="89"/>
+      <c r="J26" s="65" t="str">
+        <f>$C$13</f>
+        <v>Nyeri gigi spontan</v>
+      </c>
+      <c r="K26" s="65">
+        <f>J5</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="73"/>
+      <c r="M26" s="73"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="H27" s="73"/>
+      <c r="I27" s="89"/>
+      <c r="J27" s="65" t="str">
+        <f>$C$14</f>
+        <v>Gigi berlubang</v>
+      </c>
+      <c r="K27" s="65">
+        <f>K5</f>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="L27" s="73"/>
+      <c r="M27" s="73"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="H28" s="74"/>
+      <c r="I28" s="90"/>
+      <c r="J28" s="66" t="str">
+        <f>$C$16</f>
+        <v>Gigi goyang</v>
+      </c>
+      <c r="K28" s="66">
+        <f>M5</f>
+        <v>0.2</v>
+      </c>
+      <c r="L28" s="74"/>
+      <c r="M28" s="74"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="H29" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="I29" s="87">
+        <f>D6</f>
+        <v>8.6842105263157901E-2</v>
+      </c>
+      <c r="J29" s="64" t="str">
+        <f>$C$12</f>
+        <v>Gigi ngilu saat makan/minum</v>
+      </c>
+      <c r="K29" s="64">
+        <f>I7</f>
+        <v>0.6506024096385542</v>
+      </c>
+      <c r="L29" s="72">
+        <f>(K29*K30*K31*K32*I29)</f>
+        <v>2.0830003590774006E-2</v>
+      </c>
+      <c r="M29" s="72">
+        <f>L29/L$33</f>
+        <v>0.99164794556919211</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="H30" s="73"/>
+      <c r="I30" s="89"/>
+      <c r="J30" s="65" t="str">
+        <f>$C$13</f>
+        <v>Nyeri gigi spontan</v>
+      </c>
+      <c r="K30" s="65">
+        <f>J7</f>
+        <v>0.40963855421686746</v>
+      </c>
+      <c r="L30" s="73"/>
+      <c r="M30" s="73"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="H31" s="73"/>
+      <c r="I31" s="89"/>
+      <c r="J31" s="65" t="str">
+        <f>$C$14</f>
+        <v>Gigi berlubang</v>
+      </c>
+      <c r="K31" s="65">
+        <f>K7</f>
+        <v>1</v>
+      </c>
+      <c r="L31" s="73"/>
+      <c r="M31" s="73"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="H32" s="74"/>
+      <c r="I32" s="90"/>
+      <c r="J32" s="66" t="str">
+        <f>$C$16</f>
+        <v>Gigi goyang</v>
+      </c>
+      <c r="K32" s="66">
+        <f>M7</f>
+        <v>0.9</v>
+      </c>
+      <c r="L32" s="74"/>
+      <c r="M32" s="74"/>
+    </row>
+    <row r="33" spans="8:13">
+      <c r="H33" s="86" t="s">
+        <v>69</v>
+      </c>
+      <c r="I33" s="88">
+        <f>D7</f>
+        <v>0.21842105263157896</v>
+      </c>
+      <c r="J33" s="67"/>
+      <c r="K33" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="L33" s="63">
+        <f>SUM(L17,L21,L25,L29)</f>
+        <v>2.1005442187265234E-2</v>
+      </c>
+      <c r="M33" s="68"/>
+    </row>
+    <row r="34" spans="8:13">
+      <c r="H34" s="86"/>
+      <c r="I34" s="88"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="L34" s="63">
+        <f>SUM(L18,L22,L26,L30)</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="68"/>
+    </row>
+    <row r="35" spans="8:13">
+      <c r="K35" s="43"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+    </row>
+    <row r="41" spans="8:13">
+      <c r="H41" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="I41" s="43"/>
+      <c r="J41" s="43" t="b">
+        <f>C3=MAX(M17:M32)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="H25:H28"/>
+    <mergeCell ref="I25:I28"/>
+    <mergeCell ref="L25:L28"/>
+    <mergeCell ref="M25:M28"/>
+    <mergeCell ref="H29:H32"/>
+    <mergeCell ref="I29:I32"/>
+    <mergeCell ref="L29:L32"/>
+    <mergeCell ref="M29:M32"/>
+    <mergeCell ref="H17:H20"/>
+    <mergeCell ref="I17:I20"/>
+    <mergeCell ref="L17:L20"/>
+    <mergeCell ref="M17:M20"/>
+    <mergeCell ref="H21:H24"/>
+    <mergeCell ref="I21:I24"/>
+    <mergeCell ref="L21:L24"/>
+    <mergeCell ref="M21:M24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>